--- a/000 Fin-Tech Master List 000.xlsx
+++ b/000 Fin-Tech Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973E26A0-18E1-4C86-905E-BF850DE58B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6A0BA5-A8F7-40C4-9247-894F0D4BB58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{65E4D53C-ABED-40E4-9554-3B26F9BE725C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{65E4D53C-ABED-40E4-9554-3B26F9BE725C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="209">
   <si>
     <t>Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">Updated </t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>AFRM</t>
   </si>
   <si>
@@ -410,19 +407,265 @@
     <t>Q1'25</t>
   </si>
   <si>
-    <t>Diveresified Fin-Tech</t>
-  </si>
-  <si>
-    <t>BNPL</t>
-  </si>
-  <si>
-    <t>Credit Payment Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer Credit Rating </t>
-  </si>
-  <si>
-    <t>Credit Rating Agency</t>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Credit Cards, Corporate Payments</t>
+  </si>
+  <si>
+    <t>Payment Processing</t>
+  </si>
+  <si>
+    <t>Global Card Networks, Digital Payments</t>
+  </si>
+  <si>
+    <t>Transaction Infrastructure, Cross-Border</t>
+  </si>
+  <si>
+    <t>FinTech</t>
+  </si>
+  <si>
+    <t>Merchant Acquiring, Core Banking Software</t>
+  </si>
+  <si>
+    <t>SMB Payments, Integrated Solutions</t>
+  </si>
+  <si>
+    <t>Digital Payments</t>
+  </si>
+  <si>
+    <t>P2P Transfers, E-Commerce Checkout</t>
+  </si>
+  <si>
+    <t>SMB Payments, Bitcoin Services (Cash App)</t>
+  </si>
+  <si>
+    <t>Hospitality, Retail POS Systems</t>
+  </si>
+  <si>
+    <t>FinTech (Brazil)</t>
+  </si>
+  <si>
+    <t>Merchant Services, Banking Software</t>
+  </si>
+  <si>
+    <t>Restaurant POS &amp; Payments</t>
+  </si>
+  <si>
+    <t>Category 1</t>
+  </si>
+  <si>
+    <t>Buy Now, Pay Later (BNPL)</t>
+  </si>
+  <si>
+    <t>E-Commerce Financing</t>
+  </si>
+  <si>
+    <t>SMB Billing &amp; AP Automation</t>
+  </si>
+  <si>
+    <t>Neobank</t>
+  </si>
+  <si>
+    <t>Low-Cost Checking, Cash Advances</t>
+  </si>
+  <si>
+    <t>FinTech (Asia)</t>
+  </si>
+  <si>
+    <t>Online Brokerage, Wealth Management</t>
+  </si>
+  <si>
+    <t>Digital Lending</t>
+  </si>
+  <si>
+    <t>Personal Loans, Marketplace Lending</t>
+  </si>
+  <si>
+    <t>Credit-Building, Financial Literacy</t>
+  </si>
+  <si>
+    <t>Digital Bank (LatAm)</t>
+  </si>
+  <si>
+    <t>No-Fee Banking, Credit Cards</t>
+  </si>
+  <si>
+    <t>Student Loans, Investing, Banking</t>
+  </si>
+  <si>
+    <t>AI Lending</t>
+  </si>
+  <si>
+    <t>Credit Underwriting, Personal Loans</t>
+  </si>
+  <si>
+    <t>Cryptocurrency</t>
+  </si>
+  <si>
+    <t>Bitcoin Mining</t>
+  </si>
+  <si>
+    <t>Bitcoin Mining, Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Crypto Exchange, Custody Services</t>
+  </si>
+  <si>
+    <t>Bitcoin Treasury Holdings</t>
+  </si>
+  <si>
+    <t>Credit Scoring</t>
+  </si>
+  <si>
+    <t>FICO Scores, Fraud Detection</t>
+  </si>
+  <si>
+    <t>Credit Ratings</t>
+  </si>
+  <si>
+    <t>Corporate &amp; Sovereign Risk Analysis</t>
+  </si>
+  <si>
+    <t>Financial Data</t>
+  </si>
+  <si>
+    <t>Credit Ratings, Market Intelligence</t>
+  </si>
+  <si>
+    <t>Insurance Analytics</t>
+  </si>
+  <si>
+    <t>Risk Assessment, Claims Processing</t>
+  </si>
+  <si>
+    <t>Online Brokerage</t>
+  </si>
+  <si>
+    <t>Low-Cost Trading, Margin Lending</t>
+  </si>
+  <si>
+    <t>Retail Brokerage</t>
+  </si>
+  <si>
+    <t>Commission-Free Trading, Crypto</t>
+  </si>
+  <si>
+    <t>Electronic Trading</t>
+  </si>
+  <si>
+    <t>Fixed Income, ETFs, Derivatives</t>
+  </si>
+  <si>
+    <t>Corporate Bond Trading Platform</t>
+  </si>
+  <si>
+    <t>Proptech</t>
+  </si>
+  <si>
+    <t>iBuying (Instant Home Sales)</t>
+  </si>
+  <si>
+    <t>Real Estate Tech</t>
+  </si>
+  <si>
+    <t>Online Brokerage, Home Listings</t>
+  </si>
+  <si>
+    <t>Mortgage Tech</t>
+  </si>
+  <si>
+    <t>Digital Mortgage Origination (Quicken Loans)</t>
+  </si>
+  <si>
+    <t>Home Valuation, Listings Marketplace</t>
+  </si>
+  <si>
+    <t>InsurTech</t>
+  </si>
+  <si>
+    <t>Smart Home Insurance</t>
+  </si>
+  <si>
+    <t>AI-Powered Renters/Home Insurance</t>
+  </si>
+  <si>
+    <t>Health InsurTech</t>
+  </si>
+  <si>
+    <t>ACA Marketplace Plans, Telehealth</t>
+  </si>
+  <si>
+    <t>Usage-Based Auto Insurance</t>
+  </si>
+  <si>
+    <t>Accounting Software</t>
+  </si>
+  <si>
+    <t>Financial Close Automation</t>
+  </si>
+  <si>
+    <t>Payment Tech</t>
+  </si>
+  <si>
+    <t>Cross-Border Education/Healthcare Payments</t>
+  </si>
+  <si>
+    <t>Financial Software</t>
+  </si>
+  <si>
+    <t>TurboTax, QuickBooks, Credit Karma</t>
+  </si>
+  <si>
+    <t>Banking Software</t>
+  </si>
+  <si>
+    <t>Core Processing for Community Banks</t>
+  </si>
+  <si>
+    <t>Financial Literacy</t>
+  </si>
+  <si>
+    <t>Credit Card/ Loan Comparison Tools</t>
+  </si>
+  <si>
+    <t>Billing Tech</t>
+  </si>
+  <si>
+    <t>Utility &amp; Healthcare Payment Processing</t>
+  </si>
+  <si>
+    <t>Digital Wallets, Online Gambling Payments</t>
+  </si>
+  <si>
+    <t>Life Sciences/FinTech</t>
+  </si>
+  <si>
+    <t>Health &amp; Financial Analytics (Spin-off from PerkinElmer)</t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t>Merchant Payments, POS Systems</t>
+  </si>
+  <si>
+    <t>Forex, Commodities, Brokerage</t>
+  </si>
+  <si>
+    <t>Category 2</t>
+  </si>
+  <si>
+    <t>Real Estate Finance</t>
+  </si>
+  <si>
+    <t>Mortgage REIT (Residential/Commercial Loans)</t>
+  </si>
+  <si>
+    <t>Credit Cards, Digital Banking, Student Loans</t>
+  </si>
+  <si>
+    <t>Banking/Payment Processing Technology</t>
   </si>
 </sst>
 </file>
@@ -498,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -508,12 +751,32 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -799,58 +1062,59 @@
       <sheetName val="Paidy"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="52">
           <cell r="AU52">
-            <v>88051.794842338146</v>
+            <v>86107.083930199835</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCDFCA33-A160-41B2-A363-13964CEB7CA3}" name="Table4" displayName="Table4" ref="B2:O77" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="B2:O77" xr:uid="{BCDFCA33-A160-41B2-A363-13964CEB7CA3}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{4CC0B319-5E94-4867-B6B7-8D7F2B60671D}" name="Name" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{1BAF97B1-1112-445A-82E3-358072F16E3A}" name="Country" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B585A45C-8E5A-43D4-B398-E74AC046481A}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{48469FDD-65DC-4C3F-9EAC-5D056914FB4D}" name="Price" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{B164735C-DAA3-4FC8-8F4E-ADAE973513D5}" name="Share Count " dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{5221E4BB-0C9C-402D-8897-1257DEF63AD5}" name="MC ($M)" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCDFCA33-A160-41B2-A363-13964CEB7CA3}" name="Table4" displayName="Table4" ref="B2:P77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="B2:P77" xr:uid="{BCDFCA33-A160-41B2-A363-13964CEB7CA3}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{4CC0B319-5E94-4867-B6B7-8D7F2B60671D}" name="Name" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{1BAF97B1-1112-445A-82E3-358072F16E3A}" name="Country" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B585A45C-8E5A-43D4-B398-E74AC046481A}" name="Ticker" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{48469FDD-65DC-4C3F-9EAC-5D056914FB4D}" name="Price" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{B164735C-DAA3-4FC8-8F4E-ADAE973513D5}" name="Share Count " dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5221E4BB-0C9C-402D-8897-1257DEF63AD5}" name="MC ($M)" dataDxfId="9">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E220EFB2-9A3D-4FC8-84E4-5CDE8950861F}" name="Cash ($M)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{906E6D79-4AB2-4067-996C-B0067EE3173A}" name="Debt ($M)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{927F948E-3E8E-4D63-8206-D1925A1CA2B2}" name="EV ($M)" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{E220EFB2-9A3D-4FC8-84E4-5CDE8950861F}" name="Cash ($M)" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{906E6D79-4AB2-4067-996C-B0067EE3173A}" name="Debt ($M)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{927F948E-3E8E-4D63-8206-D1925A1CA2B2}" name="EV ($M)" dataDxfId="6">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0EB81209-F267-40E3-91EC-539902660534}" name="NPV" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{0EB81209-F267-40E3-91EC-539902660534}" name="NPV" dataDxfId="5">
       <calculatedColumnFormula>[1]Model!$AU$52</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{92552276-7FAB-47B6-8366-EB49B7DA6D77}" name="FV" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{92552276-7FAB-47B6-8366-EB49B7DA6D77}" name="FV" dataDxfId="4">
       <calculatedColumnFormula>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D0CE6D7A-477F-438F-AA29-918E83E2D2ED}" name="Upside" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{D0CE6D7A-477F-438F-AA29-918E83E2D2ED}" name="Upside" dataDxfId="3">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{09CDAE9A-4626-4418-B360-BAD3E9AB85F5}" name="Updated " dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{32ECB8FB-8024-46C6-82A1-C4A8B2E970D5}" name="Category" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{09CDAE9A-4626-4418-B360-BAD3E9AB85F5}" name="Updated " dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{BDF7B214-47B2-487A-98C5-6CC133007FBF}" name="Category 1" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{32ECB8FB-8024-46C6-82A1-C4A8B2E970D5}" name="Category 2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1173,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642841B-2975-4F03-9A99-33742986ECC4}">
-  <dimension ref="B2:O82"/>
+  <dimension ref="B2:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="K2" sqref="K2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
@@ -1188,11 +1452,14 @@
     <col min="5" max="10" width="12.73046875" style="1" customWidth="1"/>
     <col min="11" max="12" width="12.1328125" style="1" customWidth="1"/>
     <col min="13" max="14" width="12.73046875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.3984375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1328125" style="1"/>
+    <col min="15" max="15" width="34" style="1" customWidth="1"/>
+    <col min="16" max="16" width="36.9296875" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9.1328125" style="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="13.9">
+    <row r="2" spans="2:16" ht="13.9">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1221,27 +1488,30 @@
         <v>8</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="13.9" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="5">
@@ -1255,24 +1525,21 @@
         <v>0</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="7"/>
       <c r="O3" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <v>138</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="13.9" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5">
@@ -1286,24 +1553,21 @@
         <v>0</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="7"/>
       <c r="O4" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+        <v>122</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="13.9" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5">
@@ -1317,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+      <c r="L5" s="2"/>
+      <c r="M5" s="7"/>
+      <c r="O5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="13.9" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5">
@@ -1345,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+      <c r="L6" s="2"/>
+      <c r="M6" s="7"/>
+      <c r="O6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="13.9" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5">
@@ -1373,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+      <c r="L7" s="2"/>
+      <c r="M7" s="7"/>
+      <c r="O7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="13.9" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="5">
@@ -1401,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="L8" s="2"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="13.9" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
@@ -1429,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="L9" s="2"/>
+      <c r="M9" s="7"/>
+      <c r="O9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="13.9" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="5">
@@ -1457,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
+      <c r="L10" s="2"/>
+      <c r="M10" s="7"/>
+      <c r="O10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="13.9" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="5">
@@ -1485,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="L11" s="2"/>
+      <c r="M11" s="7"/>
+      <c r="O11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="13.9" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="G12" s="5">
@@ -1513,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="L12" s="2"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="13.9" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" s="5">
@@ -1541,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="L13" s="2"/>
+      <c r="M13" s="7"/>
+      <c r="O13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="13.9" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="5">
@@ -1569,24 +1833,21 @@
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="7"/>
       <c r="O14" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+        <v>158</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="13.9" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="5">
@@ -1600,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="L15" s="2"/>
+      <c r="M15" s="7"/>
+      <c r="O15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="13.9" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
       <c r="G16" s="5">
@@ -1628,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="L16" s="2"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="13.9" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="5">
@@ -1656,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="L17" s="2"/>
+      <c r="M17" s="7"/>
+      <c r="O17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="13.9" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="5">
@@ -1684,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="L18" s="2"/>
+      <c r="M18" s="7"/>
+      <c r="O18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="13.9" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="5">
@@ -1712,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="L19" s="2"/>
+      <c r="M19" s="7"/>
+      <c r="O19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="13.9" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="5">
@@ -1740,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="L20" s="2"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="13.9" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="5">
@@ -1768,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="L21" s="2"/>
+      <c r="M21" s="7"/>
+      <c r="O21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="13.9" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="G22" s="5">
@@ -1796,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="L22" s="2"/>
+      <c r="M22" s="7"/>
+      <c r="O22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="13.9" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2"/>
       <c r="G23" s="5">
@@ -1824,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="L23" s="2"/>
+      <c r="M23" s="7"/>
+      <c r="O23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="13.9" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2"/>
       <c r="G24" s="5">
@@ -1852,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="L24" s="2"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="13.9" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2"/>
       <c r="G25" s="5">
@@ -1880,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="L25" s="2"/>
+      <c r="M25" s="7"/>
+      <c r="O25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="13.9" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2"/>
       <c r="G26" s="5">
@@ -1908,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="L26" s="2"/>
+      <c r="M26" s="7"/>
+      <c r="O26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="13.9" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2"/>
       <c r="G27" s="5">
@@ -1936,24 +2197,21 @@
         <v>0</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="7"/>
       <c r="O27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:16" ht="13.9" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2"/>
       <c r="G28" s="5">
@@ -1967,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="L28" s="2"/>
+      <c r="M28" s="7"/>
+      <c r="O28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="13.9" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2"/>
       <c r="G29" s="5">
@@ -1995,24 +2253,21 @@
         <v>0</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="7"/>
       <c r="O29" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
+        <v>160</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="13.9" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2"/>
       <c r="G30" s="5">
@@ -2026,21 +2281,21 @@
         <v>0</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
+      <c r="L30" s="2"/>
+      <c r="M30" s="7"/>
+      <c r="O30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="13.9" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="G31" s="5">
@@ -2054,21 +2309,21 @@
         <v>0</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
+      <c r="L31" s="2"/>
+      <c r="M31" s="7"/>
+      <c r="O31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="13.9" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="G32" s="5">
@@ -2082,21 +2337,21 @@
         <v>0</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
+      <c r="L32" s="2"/>
+      <c r="M32" s="7"/>
+      <c r="O32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="13.9" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2"/>
       <c r="G33" s="5">
@@ -2110,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="L33" s="2"/>
+      <c r="M33" s="7"/>
+      <c r="O33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="13.9" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2"/>
       <c r="G34" s="5">
@@ -2138,21 +2393,21 @@
         <v>0</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
+      <c r="L34" s="2"/>
+      <c r="M34" s="7"/>
+      <c r="O34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="13.9" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2"/>
       <c r="G35" s="5">
@@ -2166,21 +2421,21 @@
         <v>0</v>
       </c>
       <c r="K35" s="2"/>
-      <c r="L35" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
+      <c r="L35" s="2"/>
+      <c r="M35" s="7"/>
+      <c r="O35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="13.9" customHeight="1">
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2"/>
       <c r="G36" s="5">
@@ -2194,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="K36" s="2"/>
-      <c r="L36" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
+      <c r="L36" s="2"/>
+      <c r="M36" s="7"/>
+      <c r="O36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="13.9" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2"/>
       <c r="G37" s="5">
@@ -2222,21 +2477,21 @@
         <v>0</v>
       </c>
       <c r="K37" s="2"/>
-      <c r="L37" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
+      <c r="L37" s="2"/>
+      <c r="M37" s="7"/>
+      <c r="O37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="13.9" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2"/>
       <c r="G38" s="5">
@@ -2250,21 +2505,21 @@
         <v>0</v>
       </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15">
+      <c r="L38" s="2"/>
+      <c r="M38" s="7"/>
+      <c r="O38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="13.9" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2">
         <v>62.57</v>
@@ -2288,29 +2543,32 @@
       </c>
       <c r="K39" s="5">
         <f>[1]Model!$AU$52</f>
-        <v>88051.794842338146</v>
+        <v>86107.083930199835</v>
       </c>
       <c r="L39" s="2">
         <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>89.031137353223599</v>
+        <v>87.06479669383198</v>
       </c>
       <c r="M39" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>0.42290454456166859</v>
+        <v>0.39147829141492685</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
+        <v>130</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="13.9" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2"/>
       <c r="G40" s="5">
@@ -2324,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
+      <c r="L40" s="2"/>
+      <c r="M40" s="7"/>
+      <c r="O40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="13.9" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2"/>
       <c r="G41" s="5">
@@ -2352,21 +2610,21 @@
         <v>0</v>
       </c>
       <c r="K41" s="2"/>
-      <c r="L41" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
+      <c r="L41" s="2"/>
+      <c r="M41" s="7"/>
+      <c r="O41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="13.9" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2"/>
       <c r="G42" s="5">
@@ -2380,21 +2638,21 @@
         <v>0</v>
       </c>
       <c r="K42" s="2"/>
-      <c r="L42" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
+      <c r="L42" s="2"/>
+      <c r="M42" s="7"/>
+      <c r="O42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="13.9" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2"/>
       <c r="G43" s="5">
@@ -2408,21 +2666,21 @@
         <v>0</v>
       </c>
       <c r="K43" s="2"/>
-      <c r="L43" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
+      <c r="L43" s="2"/>
+      <c r="M43" s="7"/>
+      <c r="O43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="13.9" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2"/>
       <c r="G44" s="5">
@@ -2436,21 +2694,21 @@
         <v>0</v>
       </c>
       <c r="K44" s="2"/>
-      <c r="L44" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15">
+      <c r="L44" s="2"/>
+      <c r="M44" s="7"/>
+      <c r="O44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="13.9" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2"/>
       <c r="G45" s="5">
@@ -2464,21 +2722,21 @@
         <v>0</v>
       </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15">
+      <c r="L45" s="2"/>
+      <c r="M45" s="7"/>
+      <c r="O45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="13.9" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="2"/>
       <c r="G46" s="5">
@@ -2492,21 +2750,21 @@
         <v>0</v>
       </c>
       <c r="K46" s="2"/>
-      <c r="L46" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15">
+      <c r="L46" s="2"/>
+      <c r="M46" s="7"/>
+      <c r="O46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="13.9" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2"/>
       <c r="G47" s="5">
@@ -2520,21 +2778,21 @@
         <v>0</v>
       </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
+      <c r="L47" s="2"/>
+      <c r="M47" s="7"/>
+      <c r="O47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="13.9" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" s="2"/>
       <c r="G48" s="5">
@@ -2548,24 +2806,21 @@
         <v>0</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="7"/>
       <c r="O48" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15">
+        <v>162</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="13.9" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2"/>
       <c r="G49" s="5">
@@ -2579,21 +2834,21 @@
         <v>0</v>
       </c>
       <c r="K49" s="2"/>
-      <c r="L49" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="L49" s="2"/>
+      <c r="M49" s="7"/>
+      <c r="O49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="13.9" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2"/>
       <c r="G50" s="5">
@@ -2607,21 +2862,21 @@
         <v>0</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15">
+      <c r="L50" s="2"/>
+      <c r="M50" s="7"/>
+      <c r="O50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="13.9" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51" s="2"/>
       <c r="G51" s="5">
@@ -2635,21 +2890,21 @@
         <v>0</v>
       </c>
       <c r="K51" s="2"/>
-      <c r="L51" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15">
+      <c r="L51" s="2"/>
+      <c r="M51" s="7"/>
+      <c r="O51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" ht="13.9" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="2"/>
       <c r="G52" s="5">
@@ -2663,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="K52" s="2"/>
-      <c r="L52" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15">
+      <c r="L52" s="2"/>
+      <c r="M52" s="7"/>
+      <c r="O52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" ht="13.9" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" s="2"/>
       <c r="G53" s="5">
@@ -2691,24 +2946,21 @@
         <v>0</v>
       </c>
       <c r="K53" s="2"/>
-      <c r="L53" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="7"/>
       <c r="O53" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15">
+        <v>124</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="13.9" customHeight="1">
       <c r="B54" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" s="2"/>
       <c r="G54" s="5">
@@ -2722,21 +2974,21 @@
         <v>0</v>
       </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15">
+      <c r="L54" s="2"/>
+      <c r="M54" s="7"/>
+      <c r="O54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="13.9" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E55" s="2"/>
       <c r="G55" s="5">
@@ -2750,21 +3002,21 @@
         <v>0</v>
       </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15">
+      <c r="L55" s="2"/>
+      <c r="M55" s="7"/>
+      <c r="O55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="13.9" customHeight="1">
       <c r="B56" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2"/>
       <c r="G56" s="5">
@@ -2778,16 +3030,16 @@
         <v>0</v>
       </c>
       <c r="K56" s="2"/>
-      <c r="L56" s="2" t="e">
-        <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="7" t="e">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15">
+      <c r="L56" s="2"/>
+      <c r="M56" s="7"/>
+      <c r="O56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="13.9" customHeight="1">
       <c r="E57" s="2"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -2797,7 +3049,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:16" ht="13.9" customHeight="1">
       <c r="E58" s="2"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2807,7 +3059,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:16" ht="13.9" customHeight="1">
       <c r="E59" s="2"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -2817,7 +3069,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:16" ht="13.9" customHeight="1">
       <c r="E60" s="2"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -2827,7 +3079,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:16" ht="13.9" customHeight="1">
       <c r="E61" s="2"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -2837,7 +3089,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:16" ht="13.9" customHeight="1">
       <c r="E62" s="2"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -2847,7 +3099,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:16" ht="13.9" customHeight="1">
       <c r="E63" s="2"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -2857,7 +3109,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:16" ht="13.9" customHeight="1">
       <c r="E64" s="2"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -2867,7 +3119,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="5:13">
+    <row r="65" spans="5:13" ht="13.9" customHeight="1">
       <c r="E65" s="2"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2877,7 +3129,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="5:13">
+    <row r="66" spans="5:13" ht="13.9" customHeight="1">
       <c r="E66" s="2"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -2887,7 +3139,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="5:13">
+    <row r="67" spans="5:13" ht="13.9" customHeight="1">
       <c r="E67" s="2"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -2897,7 +3149,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="5:13">
+    <row r="68" spans="5:13" ht="13.9" customHeight="1">
       <c r="E68" s="2"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -2907,7 +3159,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="5:13">
+    <row r="69" spans="5:13" ht="13.9" customHeight="1">
       <c r="E69" s="2"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -2917,7 +3169,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="5:13">
+    <row r="70" spans="5:13" ht="13.9" customHeight="1">
       <c r="E70" s="2"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -2927,7 +3179,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="5:13">
+    <row r="71" spans="5:13" ht="13.9" customHeight="1">
       <c r="E71" s="2"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -2937,7 +3189,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="5:13">
+    <row r="72" spans="5:13" ht="13.9" customHeight="1">
       <c r="E72" s="2"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -2947,7 +3199,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="5:13">
+    <row r="73" spans="5:13" ht="13.9" customHeight="1">
       <c r="E73" s="2"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -2957,7 +3209,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="5:13">
+    <row r="74" spans="5:13" ht="13.9" customHeight="1">
       <c r="E74" s="2"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -2967,7 +3219,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="5:13">
+    <row r="75" spans="5:13" ht="13.9" customHeight="1">
       <c r="E75" s="2"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -2977,7 +3229,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="5:13">
+    <row r="76" spans="5:13" ht="13.9" customHeight="1">
       <c r="E76" s="2"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -2987,7 +3239,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="5:13">
+    <row r="77" spans="5:13" ht="13.9" customHeight="1">
       <c r="E77" s="2"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>

--- a/000 Fin-Tech Master List 000.xlsx
+++ b/000 Fin-Tech Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6A0BA5-A8F7-40C4-9247-894F0D4BB58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B0190-178C-47FE-96C0-959AB8801AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{65E4D53C-ABED-40E4-9554-3B26F9BE725C}"/>
+    <workbookView xWindow="7350" yWindow="-30" windowWidth="21570" windowHeight="14010" xr2:uid="{65E4D53C-ABED-40E4-9554-3B26F9BE725C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -762,11 +762,7 @@
   <dxfs count="18">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -779,7 +775,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1062,25 +1062,25 @@
       <sheetName val="Paidy"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="52">
           <cell r="AU52">
-            <v>86107.083930199835</v>
+            <v>92296.583534726611</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1113,8 +1113,8 @@
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{09CDAE9A-4626-4418-B360-BAD3E9AB85F5}" name="Updated " dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{BDF7B214-47B2-487A-98C5-6CC133007FBF}" name="Category 1" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{32ECB8FB-8024-46C6-82A1-C4A8B2E970D5}" name="Category 2" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{BDF7B214-47B2-487A-98C5-6CC133007FBF}" name="Category 1" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{32ECB8FB-8024-46C6-82A1-C4A8B2E970D5}" name="Category 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1439,27 +1439,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642841B-2975-4F03-9A99-33742986ECC4}">
   <dimension ref="B2:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" style="1" customWidth="1"/>
-    <col min="5" max="10" width="12.73046875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.1328125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="12.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="34" style="1" customWidth="1"/>
-    <col min="16" max="16" width="36.9296875" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.1328125" style="1"/>
-    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="1"/>
+    <col min="16" max="16" width="37" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="13.9">
+    <row r="2" spans="2:16" ht="15">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="K39" s="5">
         <f>[1]Model!$AU$52</f>
-        <v>86107.083930199835</v>
+        <v>92296.583534726611</v>
       </c>
       <c r="L39" s="2">
         <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>87.06479669383198</v>
+        <v>93.323138053313059</v>
       </c>
       <c r="M39" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>0.39147829141492685</v>
+        <v>0.49149972915635387</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>121</v>

--- a/000 Fin-Tech Master List 000.xlsx
+++ b/000 Fin-Tech Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B0190-178C-47FE-96C0-959AB8801AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B94842-1A2E-462E-89BE-292A648A50B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="-30" windowWidth="21570" windowHeight="14010" xr2:uid="{65E4D53C-ABED-40E4-9554-3B26F9BE725C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65E4D53C-ABED-40E4-9554-3B26F9BE725C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>Banking/Payment Processing Technology</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -736,12 +739,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -754,6 +768,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1062,25 +1077,25 @@
       <sheetName val="Paidy"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="52">
           <cell r="AU52">
-            <v>92296.583534726611</v>
+            <v>88182.856966378706</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1437,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642841B-2975-4F03-9A99-33742986ECC4}">
-  <dimension ref="B2:P82"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1459,7 +1474,12 @@
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15">
+    <row r="1" spans="1:16">
+      <c r="A1" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1526,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="13.9" customHeight="1">
+    <row r="3" spans="1:16" ht="13.9" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
@@ -1534,7 +1554,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="13.9" customHeight="1">
+    <row r="4" spans="1:16" ht="13.9" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1562,7 +1582,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="13.9" customHeight="1">
+    <row r="5" spans="1:16" ht="13.9" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>63</v>
       </c>
@@ -1590,7 +1610,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="13.9" customHeight="1">
+    <row r="6" spans="1:16" ht="13.9" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1618,7 +1638,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="13.9" customHeight="1">
+    <row r="7" spans="1:16" ht="13.9" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1646,7 +1666,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="13.9" customHeight="1">
+    <row r="8" spans="1:16" ht="13.9" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1674,7 +1694,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="13.9" customHeight="1">
+    <row r="9" spans="1:16" ht="13.9" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>67</v>
       </c>
@@ -1702,7 +1722,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="13.9" customHeight="1">
+    <row r="10" spans="1:16" ht="13.9" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>68</v>
       </c>
@@ -1730,7 +1750,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="13.9" customHeight="1">
+    <row r="11" spans="1:16" ht="13.9" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
@@ -1758,7 +1778,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="13.9" customHeight="1">
+    <row r="12" spans="1:16" ht="13.9" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1786,7 +1806,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="13.9" customHeight="1">
+    <row r="13" spans="1:16" ht="13.9" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>71</v>
       </c>
@@ -1814,7 +1834,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="13.9" customHeight="1">
+    <row r="14" spans="1:16" ht="13.9" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
@@ -1842,7 +1862,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="13.9" customHeight="1">
+    <row r="15" spans="1:16" ht="13.9" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
@@ -1870,7 +1890,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="13.9" customHeight="1">
+    <row r="16" spans="1:16" ht="13.9" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>74</v>
       </c>
@@ -2182,7 +2202,7 @@
       <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="2"/>
@@ -2543,15 +2563,15 @@
       </c>
       <c r="K39" s="5">
         <f>[1]Model!$AU$52</f>
-        <v>92296.583534726611</v>
+        <v>88182.856966378706</v>
       </c>
       <c r="L39" s="2">
         <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>93.323138053313059</v>
+        <v>89.163657195529524</v>
       </c>
       <c r="M39" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>0.49149972915635387</v>
+        <v>0.4250224899397399</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>121</v>
@@ -2931,7 +2951,7 @@
       <c r="B53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E53" s="2"/>
@@ -3304,10 +3324,13 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{59690C71-FAD6-473E-8A88-D95DDD8C760E}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{CBC766A7-B349-415A-8C5D-11DE295C0567}"/>
     <hyperlink ref="D39" r:id="rId3" xr:uid="{EF9FAD7E-39FF-401F-8C83-1FF34E755BD5}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{DCDB6A48-033F-4227-8CD3-4E859D9DEEFB}"/>
+    <hyperlink ref="D53" r:id="rId5" xr:uid="{A46F31FF-3D91-41A3-A409-C993629306C6}"/>
+    <hyperlink ref="A1" r:id="rId6" xr:uid="{A5BD4FA4-565C-4564-A791-73AD642AC750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/000 Fin-Tech Master List 000.xlsx
+++ b/000 Fin-Tech Master List 000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B94842-1A2E-462E-89BE-292A648A50B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C9FAAB-C4BB-44E0-8A21-A183C39EED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65E4D53C-ABED-40E4-9554-3B26F9BE725C}"/>
   </bookViews>
@@ -1077,25 +1077,25 @@
       <sheetName val="Paidy"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="52">
           <cell r="AU52">
-            <v>88182.856966378706</v>
+            <v>81427.130098096677</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1454,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642841B-2975-4F03-9A99-33742986ECC4}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -2542,14 +2542,14 @@
         <v>45</v>
       </c>
       <c r="E39" s="2">
-        <v>62.57</v>
+        <v>69.11</v>
       </c>
       <c r="F39" s="1">
         <v>989</v>
       </c>
       <c r="G39" s="5">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>61881.73</v>
+        <v>68349.789999999994</v>
       </c>
       <c r="H39" s="5">
         <v>16906</v>
@@ -2559,19 +2559,19 @@
       </c>
       <c r="J39" s="5">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>57545.73</v>
+        <v>64013.789999999994</v>
       </c>
       <c r="K39" s="5">
         <f>[1]Model!$AU$52</f>
-        <v>88182.856966378706</v>
+        <v>81427.130098096677</v>
       </c>
       <c r="L39" s="2">
         <f>Table4[[#This Row],[NPV]]/Table4[[#This Row],[Share Count ]]</f>
-        <v>89.163657195529524</v>
+        <v>82.332790796862156</v>
       </c>
       <c r="M39" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>0.4250224899397399</v>
+        <v>0.19132963097760314</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>121</v>
@@ -3007,7 +3007,7 @@
       <c r="B55" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="2"/>
@@ -3327,10 +3327,11 @@
     <hyperlink ref="D27" r:id="rId4" xr:uid="{DCDB6A48-033F-4227-8CD3-4E859D9DEEFB}"/>
     <hyperlink ref="D53" r:id="rId5" xr:uid="{A46F31FF-3D91-41A3-A409-C993629306C6}"/>
     <hyperlink ref="A1" r:id="rId6" xr:uid="{A5BD4FA4-565C-4564-A791-73AD642AC750}"/>
+    <hyperlink ref="D55" r:id="rId7" xr:uid="{6224D5AD-8A0F-44BC-9575-35B939F6B189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>